--- a/Class_VII/Formative Assessment -4_class_VII.xlsx
+++ b/Class_VII/Formative Assessment -4_class_VII.xlsx
@@ -68,49 +68,49 @@
     <t>Offline</t>
   </si>
   <si>
+    <t>English II</t>
+  </si>
+  <si>
+    <t>Evaluating</t>
+  </si>
+  <si>
+    <t>0 %</t>
+  </si>
+  <si>
+    <t>Anuska Hazarika</t>
+  </si>
+  <si>
+    <t>VII</t>
+  </si>
+  <si>
+    <t>A</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Assamese</t>
+  </si>
+  <si>
+    <t>Pass</t>
+  </si>
+  <si>
+    <t>English I</t>
+  </si>
+  <si>
+    <t>Maths</t>
+  </si>
+  <si>
+    <t>Computer</t>
+  </si>
+  <si>
+    <t>Hindi</t>
+  </si>
+  <si>
     <t>Social Science</t>
   </si>
   <si>
-    <t>Evaluating</t>
-  </si>
-  <si>
-    <t>0 %</t>
-  </si>
-  <si>
-    <t>Anuska Hazarika</t>
-  </si>
-  <si>
-    <t>VII</t>
-  </si>
-  <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>Fail</t>
-  </si>
-  <si>
     <t>Science</t>
-  </si>
-  <si>
-    <t>English I</t>
-  </si>
-  <si>
-    <t>Computer</t>
-  </si>
-  <si>
-    <t>Assamese</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
-    <t>Maths</t>
-  </si>
-  <si>
-    <t>English II</t>
-  </si>
-  <si>
-    <t>Hindi</t>
   </si>
   <si>
     <t>Jeet Boro</t>
@@ -557,7 +557,7 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.5</v>
+        <v>0.5</v>
       </c>
       <c r="N2" t="s">
         <v>23</v>
@@ -601,10 +601,10 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>3.0</v>
+        <v>8.5</v>
       </c>
       <c r="N3" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -618,7 +618,7 @@
         <v>16</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" t="s">
         <v>18</v>
@@ -662,7 +662,7 @@
         <v>16</v>
       </c>
       <c r="D5" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" t="s">
         <v>18</v>
@@ -689,10 +689,10 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.0</v>
+        <v>8.0</v>
       </c>
       <c r="N5" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -706,7 +706,7 @@
         <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E6" t="s">
         <v>18</v>
@@ -733,10 +733,10 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>8.5</v>
+        <v>3.5</v>
       </c>
       <c r="N6" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -777,10 +777,10 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>8.0</v>
+        <v>7.5</v>
       </c>
       <c r="N7" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -821,7 +821,7 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="N8" t="s">
         <v>23</v>
@@ -865,10 +865,10 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>7.5</v>
+        <v>3.0</v>
       </c>
       <c r="N9" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -882,7 +882,7 @@
         <v>16</v>
       </c>
       <c r="D10" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="E10" t="s">
         <v>18</v>
@@ -909,7 +909,7 @@
         <v>2</v>
       </c>
       <c r="M10">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
       <c r="N10" t="s">
         <v>23</v>
@@ -926,7 +926,7 @@
         <v>16</v>
       </c>
       <c r="D11" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E11" t="s">
         <v>18</v>
@@ -953,10 +953,10 @@
         <v>2</v>
       </c>
       <c r="M11">
-        <v>7.0</v>
+        <v>3.0</v>
       </c>
       <c r="N11" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -970,7 +970,7 @@
         <v>16</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E12" t="s">
         <v>18</v>
@@ -997,7 +997,7 @@
         <v>2</v>
       </c>
       <c r="M12">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
       <c r="N12" t="s">
         <v>23</v>
@@ -1014,7 +1014,7 @@
         <v>16</v>
       </c>
       <c r="D13" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="E13" t="s">
         <v>18</v>
@@ -1041,7 +1041,7 @@
         <v>2</v>
       </c>
       <c r="M13">
-        <v>5.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" t="s">
         <v>23</v>
@@ -1058,7 +1058,7 @@
         <v>16</v>
       </c>
       <c r="D14" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="E14" t="s">
         <v>18</v>
@@ -1085,10 +1085,10 @@
         <v>2</v>
       </c>
       <c r="M14">
-        <v>10.0</v>
+        <v>7.0</v>
       </c>
       <c r="N14" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1102,7 +1102,7 @@
         <v>16</v>
       </c>
       <c r="D15" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E15" t="s">
         <v>18</v>
@@ -1146,7 +1146,7 @@
         <v>16</v>
       </c>
       <c r="D16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E16" t="s">
         <v>18</v>
@@ -1173,10 +1173,10 @@
         <v>2</v>
       </c>
       <c r="M16">
-        <v>0.0</v>
+        <v>10.0</v>
       </c>
       <c r="N16" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1190,7 +1190,7 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E17" t="s">
         <v>18</v>
@@ -1217,7 +1217,7 @@
         <v>2</v>
       </c>
       <c r="M17">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
       <c r="N17" t="s">
         <v>23</v>
@@ -1234,7 +1234,7 @@
         <v>16</v>
       </c>
       <c r="D18" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E18" t="s">
         <v>18</v>
@@ -1261,10 +1261,10 @@
         <v>3</v>
       </c>
       <c r="M18">
-        <v>9.0</v>
+        <v>8.0</v>
       </c>
       <c r="N18" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1278,7 +1278,7 @@
         <v>16</v>
       </c>
       <c r="D19" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E19" t="s">
         <v>18</v>
@@ -1305,10 +1305,10 @@
         <v>3</v>
       </c>
       <c r="M19">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="N19" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1322,7 +1322,7 @@
         <v>16</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E20" t="s">
         <v>18</v>
@@ -1349,10 +1349,10 @@
         <v>3</v>
       </c>
       <c r="M20">
-        <v>10.0</v>
+        <v>17.5</v>
       </c>
       <c r="N20" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1366,7 +1366,7 @@
         <v>16</v>
       </c>
       <c r="D21" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="E21" t="s">
         <v>18</v>
@@ -1393,10 +1393,10 @@
         <v>3</v>
       </c>
       <c r="M21">
-        <v>4.0</v>
+        <v>17.0</v>
       </c>
       <c r="N21" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1410,7 +1410,7 @@
         <v>16</v>
       </c>
       <c r="D22" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E22" t="s">
         <v>18</v>
@@ -1437,10 +1437,10 @@
         <v>3</v>
       </c>
       <c r="M22">
-        <v>17.5</v>
+        <v>9.5</v>
       </c>
       <c r="N22" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1454,7 +1454,7 @@
         <v>16</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E23" t="s">
         <v>18</v>
@@ -1481,10 +1481,10 @@
         <v>3</v>
       </c>
       <c r="M23">
-        <v>8.0</v>
+        <v>3.5</v>
       </c>
       <c r="N23" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1498,7 +1498,7 @@
         <v>16</v>
       </c>
       <c r="D24" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="E24" t="s">
         <v>18</v>
@@ -1525,10 +1525,10 @@
         <v>3</v>
       </c>
       <c r="M24">
-        <v>9.5</v>
+        <v>4.0</v>
       </c>
       <c r="N24" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1542,7 +1542,7 @@
         <v>16</v>
       </c>
       <c r="D25" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="E25" t="s">
         <v>18</v>
@@ -1569,10 +1569,10 @@
         <v>3</v>
       </c>
       <c r="M25">
-        <v>17.0</v>
+        <v>10.0</v>
       </c>
       <c r="N25" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1586,7 +1586,7 @@
         <v>16</v>
       </c>
       <c r="D26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E26" t="s">
         <v>18</v>
@@ -1630,7 +1630,7 @@
         <v>16</v>
       </c>
       <c r="D27" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E27" t="s">
         <v>18</v>
@@ -1657,7 +1657,7 @@
         <v>4</v>
       </c>
       <c r="M27">
-        <v>1.5</v>
+        <v>2.0</v>
       </c>
       <c r="N27" t="s">
         <v>23</v>
@@ -1674,7 +1674,7 @@
         <v>16</v>
       </c>
       <c r="D28" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E28" t="s">
         <v>18</v>
@@ -1701,7 +1701,7 @@
         <v>4</v>
       </c>
       <c r="M28">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
       <c r="N28" t="s">
         <v>23</v>
@@ -1718,7 +1718,7 @@
         <v>16</v>
       </c>
       <c r="D29" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E29" t="s">
         <v>18</v>
@@ -1745,7 +1745,7 @@
         <v>4</v>
       </c>
       <c r="M29">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
       <c r="N29" t="s">
         <v>23</v>
@@ -1762,7 +1762,7 @@
         <v>16</v>
       </c>
       <c r="D30" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E30" t="s">
         <v>18</v>
@@ -1789,7 +1789,7 @@
         <v>4</v>
       </c>
       <c r="M30">
-        <v>0.0</v>
+        <v>1.5</v>
       </c>
       <c r="N30" t="s">
         <v>23</v>
@@ -1806,7 +1806,7 @@
         <v>16</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E31" t="s">
         <v>18</v>
@@ -1833,7 +1833,7 @@
         <v>4</v>
       </c>
       <c r="M31">
-        <v>3.0</v>
+        <v>2.0</v>
       </c>
       <c r="N31" t="s">
         <v>23</v>
@@ -1850,7 +1850,7 @@
         <v>16</v>
       </c>
       <c r="D32" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E32" t="s">
         <v>18</v>
@@ -1877,7 +1877,7 @@
         <v>4</v>
       </c>
       <c r="M32">
-        <v>3.0</v>
+        <v>0.0</v>
       </c>
       <c r="N32" t="s">
         <v>23</v>
@@ -1894,7 +1894,7 @@
         <v>16</v>
       </c>
       <c r="D33" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E33" t="s">
         <v>18</v>
@@ -1921,7 +1921,7 @@
         <v>4</v>
       </c>
       <c r="M33">
-        <v>6.0</v>
+        <v>3.0</v>
       </c>
       <c r="N33" t="s">
         <v>23</v>
@@ -1938,7 +1938,7 @@
         <v>16</v>
       </c>
       <c r="D34" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="E34" t="s">
         <v>18</v>
@@ -1965,10 +1965,10 @@
         <v>5</v>
       </c>
       <c r="M34">
-        <v>7.0</v>
+        <v>18.0</v>
       </c>
       <c r="N34" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -1982,7 +1982,7 @@
         <v>16</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E35" t="s">
         <v>18</v>
@@ -2012,7 +2012,7 @@
         <v>9.0</v>
       </c>
       <c r="N35" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2026,7 +2026,7 @@
         <v>16</v>
       </c>
       <c r="D36" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E36" t="s">
         <v>18</v>
@@ -2056,7 +2056,7 @@
         <v>13.0</v>
       </c>
       <c r="N36" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2070,7 +2070,7 @@
         <v>16</v>
       </c>
       <c r="D37" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E37" t="s">
         <v>18</v>
@@ -2097,10 +2097,10 @@
         <v>5</v>
       </c>
       <c r="M37">
-        <v>11.5</v>
+        <v>4.5</v>
       </c>
       <c r="N37" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2114,7 +2114,7 @@
         <v>16</v>
       </c>
       <c r="D38" t="s">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="E38" t="s">
         <v>18</v>
@@ -2141,10 +2141,10 @@
         <v>5</v>
       </c>
       <c r="M38">
-        <v>18.0</v>
+        <v>11.5</v>
       </c>
       <c r="N38" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2158,7 +2158,7 @@
         <v>16</v>
       </c>
       <c r="D39" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E39" t="s">
         <v>18</v>
@@ -2185,10 +2185,10 @@
         <v>5</v>
       </c>
       <c r="M39">
-        <v>0.0</v>
+        <v>7.0</v>
       </c>
       <c r="N39" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2232,7 +2232,7 @@
         <v>7.0</v>
       </c>
       <c r="N40" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2246,7 +2246,7 @@
         <v>16</v>
       </c>
       <c r="D41" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E41" t="s">
         <v>18</v>
@@ -2276,7 +2276,7 @@
         <v>7.0</v>
       </c>
       <c r="N41" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2290,7 +2290,7 @@
         <v>16</v>
       </c>
       <c r="D42" t="s">
-        <v>17</v>
+        <v>30</v>
       </c>
       <c r="E42" t="s">
         <v>18</v>
@@ -2320,7 +2320,7 @@
         <v>11.0</v>
       </c>
       <c r="N42" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2334,7 +2334,7 @@
         <v>16</v>
       </c>
       <c r="D43" t="s">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="E43" t="s">
         <v>18</v>
@@ -2364,7 +2364,7 @@
         <v>7.0</v>
       </c>
       <c r="N43" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2405,10 +2405,10 @@
         <v>6</v>
       </c>
       <c r="M44">
-        <v>9.0</v>
+        <v>14.5</v>
       </c>
       <c r="N44" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2422,7 +2422,7 @@
         <v>16</v>
       </c>
       <c r="D45" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E45" t="s">
         <v>18</v>
@@ -2449,10 +2449,10 @@
         <v>6</v>
       </c>
       <c r="M45">
-        <v>0.0</v>
+        <v>9.0</v>
       </c>
       <c r="N45" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2466,7 +2466,7 @@
         <v>16</v>
       </c>
       <c r="D46" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E46" t="s">
         <v>18</v>
@@ -2493,10 +2493,10 @@
         <v>6</v>
       </c>
       <c r="M46">
-        <v>9.0</v>
+        <v>5.0</v>
       </c>
       <c r="N46" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2510,7 +2510,7 @@
         <v>16</v>
       </c>
       <c r="D47" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E47" t="s">
         <v>18</v>
@@ -2537,10 +2537,10 @@
         <v>6</v>
       </c>
       <c r="M47">
-        <v>7.0</v>
+        <v>9.0</v>
       </c>
       <c r="N47" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2554,7 +2554,7 @@
         <v>16</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s">
         <v>18</v>
@@ -2581,7 +2581,7 @@
         <v>6</v>
       </c>
       <c r="M48">
-        <v>5.0</v>
+        <v>3.0</v>
       </c>
       <c r="N48" t="s">
         <v>23</v>
@@ -2598,7 +2598,7 @@
         <v>16</v>
       </c>
       <c r="D49" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
         <v>18</v>
@@ -2625,10 +2625,10 @@
         <v>6</v>
       </c>
       <c r="M49">
-        <v>14.5</v>
+        <v>7.0</v>
       </c>
       <c r="N49" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2642,7 +2642,7 @@
         <v>16</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="E50" t="s">
         <v>18</v>
@@ -2669,10 +2669,10 @@
         <v>7</v>
       </c>
       <c r="M50">
-        <v>22.0</v>
+        <v>11.5</v>
       </c>
       <c r="N50" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2686,7 +2686,7 @@
         <v>16</v>
       </c>
       <c r="D51" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E51" t="s">
         <v>18</v>
@@ -2713,10 +2713,10 @@
         <v>7</v>
       </c>
       <c r="M51">
-        <v>22.0</v>
+        <v>11.0</v>
       </c>
       <c r="N51" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2730,7 +2730,7 @@
         <v>16</v>
       </c>
       <c r="D52" t="s">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E52" t="s">
         <v>18</v>
@@ -2757,10 +2757,10 @@
         <v>7</v>
       </c>
       <c r="M52">
-        <v>9.5</v>
+        <v>11.5</v>
       </c>
       <c r="N52" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2774,7 +2774,7 @@
         <v>16</v>
       </c>
       <c r="D53" t="s">
-        <v>24</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
         <v>18</v>
@@ -2801,10 +2801,10 @@
         <v>7</v>
       </c>
       <c r="M53">
-        <v>11.5</v>
+        <v>12.0</v>
       </c>
       <c r="N53" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2818,7 +2818,7 @@
         <v>16</v>
       </c>
       <c r="D54" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="E54" t="s">
         <v>18</v>
@@ -2845,10 +2845,10 @@
         <v>7</v>
       </c>
       <c r="M54">
-        <v>0.0</v>
+        <v>22.0</v>
       </c>
       <c r="N54" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2862,7 +2862,7 @@
         <v>16</v>
       </c>
       <c r="D55" t="s">
-        <v>30</v>
+        <v>24</v>
       </c>
       <c r="E55" t="s">
         <v>18</v>
@@ -2889,10 +2889,10 @@
         <v>7</v>
       </c>
       <c r="M55">
-        <v>12.0</v>
+        <v>9.5</v>
       </c>
       <c r="N55" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2906,7 +2906,7 @@
         <v>16</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E56" t="s">
         <v>18</v>
@@ -2933,10 +2933,10 @@
         <v>7</v>
       </c>
       <c r="M56">
-        <v>11.0</v>
+        <v>22.0</v>
       </c>
       <c r="N56" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -2950,7 +2950,7 @@
         <v>16</v>
       </c>
       <c r="D57" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E57" t="s">
         <v>18</v>
@@ -2980,7 +2980,7 @@
         <v>18.0</v>
       </c>
       <c r="N57" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -2994,7 +2994,7 @@
         <v>16</v>
       </c>
       <c r="D58" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="E58" t="s">
         <v>18</v>
@@ -3021,7 +3021,7 @@
         <v>8</v>
       </c>
       <c r="M58">
-        <v>1.5</v>
+        <v>3.0</v>
       </c>
       <c r="N58" t="s">
         <v>23</v>
@@ -3065,10 +3065,10 @@
         <v>8</v>
       </c>
       <c r="M59">
-        <v>1.0</v>
+        <v>9.0</v>
       </c>
       <c r="N59" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3082,7 +3082,7 @@
         <v>16</v>
       </c>
       <c r="D60" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s">
         <v>18</v>
@@ -3109,7 +3109,7 @@
         <v>8</v>
       </c>
       <c r="M60">
-        <v>0.0</v>
+        <v>2.5</v>
       </c>
       <c r="N60" t="s">
         <v>23</v>
@@ -3126,7 +3126,7 @@
         <v>16</v>
       </c>
       <c r="D61" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E61" t="s">
         <v>18</v>
@@ -3153,7 +3153,7 @@
         <v>8</v>
       </c>
       <c r="M61">
-        <v>3.0</v>
+        <v>1.5</v>
       </c>
       <c r="N61" t="s">
         <v>23</v>
@@ -3170,7 +3170,7 @@
         <v>16</v>
       </c>
       <c r="D62" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="E62" t="s">
         <v>18</v>
@@ -3197,10 +3197,10 @@
         <v>8</v>
       </c>
       <c r="M62">
-        <v>9.0</v>
+        <v>0.0</v>
       </c>
       <c r="N62" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3214,7 +3214,7 @@
         <v>16</v>
       </c>
       <c r="D63" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E63" t="s">
         <v>18</v>
@@ -3258,7 +3258,7 @@
         <v>16</v>
       </c>
       <c r="D64" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="E64" t="s">
         <v>18</v>
@@ -3329,7 +3329,7 @@
         <v>8</v>
       </c>
       <c r="M65">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="N65" t="s">
         <v>23</v>
